--- a/data/flaviolin/DBTL0.2/OD.xlsx
+++ b/data/flaviolin/DBTL0.2/OD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbei\Desktop\Tijana Radivojevic\DBTL0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tradivojevic/Documents/Code/Python/media_compiler/data/flaviolin/DBTL0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3DE349-144B-0346-865E-BC1732249BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15075" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15080" windowHeight="9040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="600" sheetId="1" r:id="rId1"/>
@@ -25,15 +26,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,215 +368,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.79E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4.7399999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.1384</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.16E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
@@ -558,215 +604,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0.18809999999999999</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.18440000000000001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.187</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2359</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.21060000000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.21640000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.1804</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.11890000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>0.23180000000000001</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.1913</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2044</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.17810000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2291</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.24129999999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.2331</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1353</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>0.19950000000000001</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.1976</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.18090000000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1741</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.19989999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.18790000000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.17299999999999999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.19719999999999999</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.13569999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0.1988</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.21640000000000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.20469999999999999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1802</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1188</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.31430000000000002</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.13550000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>0.21529999999999999</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.19339999999999999</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.20519999999999999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.17510000000000001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.1724</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.23799999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.24540000000000001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.12139999999999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.19070000000000001</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0.19070000000000001</v>
       </c>
       <c r="C7">
+        <v>0.19070000000000001</v>
+      </c>
+      <c r="D7">
         <v>0.21329999999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.25359999999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.19869999999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1236</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.124</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.1236</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.13539999999999999</v>
       </c>
     </row>
